--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H2">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I2">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J2">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N2">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O2">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P2">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q2">
-        <v>332.2259656361823</v>
+        <v>2.055050185560333</v>
       </c>
       <c r="R2">
-        <v>2990.03369072564</v>
+        <v>18.495451670043</v>
       </c>
       <c r="S2">
-        <v>0.02494957157976048</v>
+        <v>0.0003508706878506524</v>
       </c>
       <c r="T2">
-        <v>0.02494957157976049</v>
+        <v>0.0003508706878506523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H3">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I3">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J3">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>57.824759</v>
       </c>
       <c r="O3">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P3">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q3">
-        <v>2754.527755275949</v>
+        <v>59.27357118669145</v>
       </c>
       <c r="R3">
-        <v>24790.74979748354</v>
+        <v>533.462140680223</v>
       </c>
       <c r="S3">
-        <v>0.2068600726830414</v>
+        <v>0.01012012204848827</v>
       </c>
       <c r="T3">
-        <v>0.2068600726830414</v>
+        <v>0.01012012204848827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>142.9073533333333</v>
+        <v>3.075165666666667</v>
       </c>
       <c r="H4">
-        <v>428.72206</v>
+        <v>9.225497000000001</v>
       </c>
       <c r="I4">
-        <v>0.5576664151504187</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="J4">
-        <v>0.5576664151504188</v>
+        <v>0.02641273658732285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N4">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O4">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P4">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q4">
-        <v>4339.07572405161</v>
+        <v>93.37081948853057</v>
       </c>
       <c r="R4">
-        <v>39051.68151646449</v>
+        <v>840.3373753967751</v>
       </c>
       <c r="S4">
-        <v>0.3258567708876169</v>
+        <v>0.01594174385098392</v>
       </c>
       <c r="T4">
-        <v>0.3258567708876169</v>
+        <v>0.01594174385098392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>191.903427</v>
       </c>
       <c r="I5">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J5">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N5">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O5">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P5">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q5">
-        <v>148.710102167282</v>
+        <v>42.747959623857</v>
       </c>
       <c r="R5">
-        <v>1338.390919505538</v>
+        <v>384.731636614713</v>
       </c>
       <c r="S5">
-        <v>0.01116786080085975</v>
+        <v>0.007298608132698699</v>
       </c>
       <c r="T5">
-        <v>0.01116786080085975</v>
+        <v>0.007298608132698699</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>191.903427</v>
       </c>
       <c r="I6">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J6">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>57.824759</v>
       </c>
       <c r="O6">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P6">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q6">
         <v>1232.974379727677</v>
@@ -818,10 +818,10 @@
         <v>11096.76941754909</v>
       </c>
       <c r="S6">
-        <v>0.09259415495751425</v>
+        <v>0.2105128973282587</v>
       </c>
       <c r="T6">
-        <v>0.09259415495751425</v>
+        <v>0.2105128973282587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>191.903427</v>
       </c>
       <c r="I7">
-        <v>0.2496211559306514</v>
+        <v>0.549422396165273</v>
       </c>
       <c r="J7">
-        <v>0.2496211559306514</v>
+        <v>0.5494223961652731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N7">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O7">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P7">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q7">
         <v>1942.245522560725</v>
       </c>
       <c r="R7">
-        <v>17480.20970304652</v>
+        <v>17480.20970304653</v>
       </c>
       <c r="S7">
-        <v>0.1458591401722774</v>
+        <v>0.3316108907043157</v>
       </c>
       <c r="T7">
-        <v>0.1458591401722774</v>
+        <v>0.3316108907043157</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>148.15321</v>
       </c>
       <c r="I8">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J8">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.324764666666667</v>
+        <v>0.668273</v>
       </c>
       <c r="N8">
-        <v>6.974294</v>
+        <v>2.004819</v>
       </c>
       <c r="O8">
-        <v>0.04473923998638302</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="P8">
-        <v>0.04473923998638301</v>
+        <v>0.01328414746766746</v>
       </c>
       <c r="Q8">
-        <v>114.8071159537489</v>
+        <v>33.00226336877667</v>
       </c>
       <c r="R8">
-        <v>1033.26404358374</v>
+        <v>297.02037031899</v>
       </c>
       <c r="S8">
-        <v>0.008621807605762779</v>
+        <v>0.005634668647118107</v>
       </c>
       <c r="T8">
-        <v>0.008621807605762779</v>
+        <v>0.005634668647118106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>148.15321</v>
       </c>
       <c r="I9">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J9">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>57.824759</v>
       </c>
       <c r="O9">
-        <v>0.3709387315842666</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="P9">
-        <v>0.3709387315842665</v>
+        <v>0.3831531055114357</v>
       </c>
       <c r="Q9">
         <v>951.8804070362654</v>
@@ -1004,10 +1004,10 @@
         <v>8566.92366332639</v>
       </c>
       <c r="S9">
-        <v>0.07148450394371096</v>
+        <v>0.1625200861346887</v>
       </c>
       <c r="T9">
-        <v>0.07148450394371096</v>
+        <v>0.1625200861346887</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>148.15321</v>
       </c>
       <c r="I10">
-        <v>0.1927124289189298</v>
+        <v>0.424164867247404</v>
       </c>
       <c r="J10">
-        <v>0.1927124289189298</v>
+        <v>0.4241648672474041</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.36285833333333</v>
+        <v>30.36285833333334</v>
       </c>
       <c r="N10">
-        <v>91.08857499999999</v>
+        <v>91.08857500000001</v>
       </c>
       <c r="O10">
-        <v>0.5843220284293504</v>
+        <v>0.6035627470208969</v>
       </c>
       <c r="P10">
-        <v>0.5843220284293503</v>
+        <v>0.6035627470208967</v>
       </c>
       <c r="Q10">
-        <v>1499.451642286194</v>
+        <v>1499.451642286195</v>
       </c>
       <c r="R10">
         <v>13495.06478057575</v>
       </c>
       <c r="S10">
-        <v>0.1126061173694561</v>
+        <v>0.2560101124655972</v>
       </c>
       <c r="T10">
-        <v>0.1126061173694561</v>
+        <v>0.2560101124655972</v>
       </c>
     </row>
   </sheetData>
